--- a/techexpo15-final-seriously.xlsx
+++ b/techexpo15-final-seriously.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="0" windowWidth="19060" windowHeight="17560" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="3880" yWindow="0" windowWidth="19060" windowHeight="17560" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cso-grid" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="904">
   <si>
     <t>linkedinID</t>
   </si>
@@ -2733,6 +2733,12 @@
   </si>
   <si>
     <t>NEW LABELS</t>
+  </si>
+  <si>
+    <t>general-dynamics-land-systems</t>
+  </si>
+  <si>
+    <t>state-of-illinois</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +2839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2887,6 +2893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2967,7 +2979,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="436">
+  <cellStyleXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3404,8 +3416,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3438,8 +3452,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="381"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="436">
+  <cellStyles count="438">
     <cellStyle name="Bad" xfId="203" builtinId="27"/>
     <cellStyle name="Calculation" xfId="381" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3665,6 +3681,7 @@
     <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="202" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -3872,6 +3889,7 @@
     <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="432" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="436" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="204" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
@@ -18959,18 +18977,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="31"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18983,8 +19005,23 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -18997,8 +19034,23 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1551</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -19011,8 +19063,23 @@
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -19025,8 +19092,23 @@
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>373</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -19039,8 +19121,23 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
+        <v>396</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -19053,8 +19150,23 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1058</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -19067,8 +19179,23 @@
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -19081,8 +19208,23 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3">
+        <v>939</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -19095,8 +19237,23 @@
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1530</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -19109,8 +19266,23 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3">
+        <v>683</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -19123,8 +19295,23 @@
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1088</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -19137,8 +19324,23 @@
       <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1160</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -19151,8 +19353,23 @@
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1026</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -19165,8 +19382,23 @@
       <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1275</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -19179,8 +19411,23 @@
       <c r="D15" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1480</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -19193,8 +19440,23 @@
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1087</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -19207,8 +19469,23 @@
       <c r="D17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="3">
+        <v>92</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -19221,8 +19498,23 @@
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3">
+        <v>623</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -19235,8 +19527,23 @@
       <c r="D19" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3">
+        <v>96</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -19249,8 +19556,23 @@
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3">
+        <v>852</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -19263,8 +19585,23 @@
       <c r="D21" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="3">
+        <v>517</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -19277,8 +19614,23 @@
       <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="3">
+        <v>632</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -19291,9 +19643,26 @@
       <c r="D23" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3">
+        <v>330</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7" t="s">
+        <v>902</v>
+      </c>
       <c r="B24" s="3">
         <v>1797</v>
       </c>
@@ -19303,8 +19672,23 @@
       <c r="D24" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1797</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -19317,8 +19701,23 @@
       <c r="D25" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -19331,8 +19730,23 @@
       <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1305</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -19345,8 +19759,23 @@
       <c r="D27" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1879</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -19359,8 +19788,23 @@
       <c r="D28" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3">
+        <v>332</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -19373,9 +19817,26 @@
       <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="3">
+        <v>311</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
+        <v>903</v>
+      </c>
       <c r="B30" s="3">
         <v>1352</v>
       </c>
@@ -19385,8 +19846,23 @@
       <c r="D30" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1352</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>903</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -19399,8 +19875,23 @@
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="3">
+        <v>771</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
@@ -19413,8 +19904,23 @@
       <c r="D32" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1057</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
@@ -19427,8 +19933,23 @@
       <c r="D33" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1628</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -19441,8 +19962,23 @@
       <c r="D34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="3">
+        <v>525</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -19455,8 +19991,23 @@
       <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1944</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -19469,8 +20020,23 @@
       <c r="D36" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1274</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
@@ -19483,8 +20049,23 @@
       <c r="D37" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1912</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3" t="s">
         <v>72</v>
       </c>
@@ -19497,8 +20078,23 @@
       <c r="D38" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="3">
+        <v>473</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -19511,8 +20107,23 @@
       <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="3">
+        <v>185</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -19525,8 +20136,23 @@
       <c r="D40" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1906</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
@@ -19539,8 +20165,23 @@
       <c r="D41" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1902</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3" t="s">
         <v>80</v>
       </c>
@@ -19553,8 +20194,23 @@
       <c r="D42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1591</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
@@ -19567,8 +20223,23 @@
       <c r="D43" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1575</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -19581,8 +20252,23 @@
       <c r="D44" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1898</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3" t="s">
         <v>86</v>
       </c>
@@ -19595,8 +20281,23 @@
       <c r="D45" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="3">
+        <v>625</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3" t="s">
         <v>88</v>
       </c>
@@ -19609,8 +20310,23 @@
       <c r="D46" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="3">
+        <v>568</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -19623,8 +20339,23 @@
       <c r="D47" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="3">
+        <v>572</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="3" t="s">
         <v>92</v>
       </c>
@@ -19637,8 +20368,23 @@
       <c r="D48" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="3">
+        <v>998</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
@@ -19651,8 +20397,23 @@
       <c r="D49" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="3">
+        <v>172</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -19665,8 +20426,23 @@
       <c r="D50" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1042</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
@@ -19679,8 +20455,23 @@
       <c r="D51" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1905</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
         <v>100</v>
       </c>
@@ -19693,8 +20484,23 @@
       <c r="D52" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1926</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -19707,8 +20513,23 @@
       <c r="D53" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1044</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
@@ -19721,8 +20542,23 @@
       <c r="D54" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="3">
+        <v>880</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
         <v>106</v>
       </c>
@@ -19735,8 +20571,23 @@
       <c r="D55" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1253</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
@@ -19749,8 +20600,23 @@
       <c r="D56" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" s="3">
+        <v>480</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -19763,8 +20629,23 @@
       <c r="D57" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1891</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
@@ -19777,8 +20658,23 @@
       <c r="D58" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1325</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="3" t="s">
         <v>114</v>
       </c>
@@ -19791,8 +20687,23 @@
       <c r="D59" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" s="3">
+        <v>764</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="3" t="s">
         <v>116</v>
       </c>
@@ -19805,8 +20716,23 @@
       <c r="D60" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="3">
+        <v>986</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="3" t="s">
         <v>118</v>
       </c>
@@ -19819,8 +20745,23 @@
       <c r="D61" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1626</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -19833,8 +20774,23 @@
       <c r="D62" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="3">
+        <v>648</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="3" t="s">
         <v>120</v>
       </c>
@@ -19847,10 +20803,25 @@
       <c r="D63" s="3" t="s">
         <v>123</v>
       </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1668</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D63">
-    <sortCondition ref="D2:D63"/>
+  <sortState ref="F2:J63">
+    <sortCondition ref="G2:G63"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -24648,8 +25619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25144,7 +26115,9 @@
       <c r="C24" s="3">
         <v>1797</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="30" t="s">
+        <v>902</v>
+      </c>
       <c r="E24" s="16" t="s">
         <v>140</v>
       </c>
@@ -25244,7 +26217,9 @@
       <c r="C30" s="3">
         <v>1352</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="30" t="s">
+        <v>903</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>156</v>
       </c>
